--- a/Coverage/Coverage_Output_Taranaki/Coverage_Taranaki.xlsx
+++ b/Coverage/Coverage_Output_Taranaki/Coverage_Taranaki.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Pederson\Documents\MATLAB\Satellite\Satellite\Project\Output_Coverage_EXP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai Pederson\Documents\MATLAB\Satellite\Satellite\Project\Coverage\Coverage_Output_Taranaki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB41521F-9FF2-4620-861F-6DC1B7A20A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44269A2-D810-4A64-94BE-15E5D2F8D6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{3B764329-F539-46CD-A2FC-0E65D9CBAC5A}"/>
+    <workbookView xWindow="-28920" yWindow="8250" windowWidth="29040" windowHeight="15840" xr2:uid="{3B764329-F539-46CD-A2FC-0E65D9CBAC5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,6 +119,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TX</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Windows at Mount Taranaki, NZ</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -455,6 +485,7 @@
         <c:crossAx val="739768367"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
